--- a/all.xlsx
+++ b/all.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Python\hakaton\project\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6863418-A3AA-4844-8515-F4703BAC9494}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="63">
   <si>
     <t>день</t>
   </si>
@@ -197,13 +198,28 @@
     <t>Хадынская А. А.</t>
   </si>
   <si>
-    <t>n</t>
+    <t>Шапошникова И.В</t>
+  </si>
+  <si>
+    <t>Семенов О.Ю</t>
+  </si>
+  <si>
+    <t>Кулагина И.В</t>
+  </si>
+  <si>
+    <t>Пешков А.А</t>
+  </si>
+  <si>
+    <t>Костюнина М.В</t>
+  </si>
+  <si>
+    <t>Кузнецова С.В</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,24 +544,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -585,7 +601,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -605,7 +621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -625,7 +641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -636,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -645,7 +661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -656,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -665,7 +681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -685,7 +701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -705,7 +721,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -716,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
@@ -725,7 +741,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -736,7 +752,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
@@ -745,7 +761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -756,7 +772,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
@@ -765,7 +781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -785,7 +801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -805,7 +821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -825,7 +841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -845,7 +861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -865,7 +881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -885,7 +901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -905,7 +921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -916,7 +932,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>30</v>
@@ -925,7 +941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -945,7 +961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -956,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -965,7 +981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -976,7 +992,7 @@
         <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>43</v>
@@ -985,7 +1001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -996,7 +1012,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
@@ -1005,7 +1021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1025,7 +1041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1045,7 +1061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1085,7 +1101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1105,7 +1121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -1125,7 +1141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1136,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>47</v>
@@ -1145,7 +1161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -1165,7 +1181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1185,7 +1201,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1196,7 +1212,7 @@
         <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>22</v>
